--- a/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.xlsx
+++ b/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\CPQ\src\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akashs\git\CPQ\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$2:$AF$60</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12522" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12522" uniqueCount="536">
   <si>
     <t>Product</t>
   </si>
@@ -2065,11 +2065,14 @@
   <si>
     <t>Ethernet Line</t>
   </si>
+  <si>
+    <t>E-Signature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2125,7 +2128,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2153,6 +2156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2247,7 +2256,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2431,23 +2440,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2456,6 +2474,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2470,32 +2497,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2503,8 +2515,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8536,10 +8551,10 @@
   <dimension ref="A1:XFD78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B6"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8576,40 +8591,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -8710,19 +8725,19 @@
       </c>
     </row>
     <row r="3" spans="1:32" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="80" t="s">
-        <v>362</v>
+      <c r="B3" s="87" t="s">
+        <v>367</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="84">
         <v>3795623</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>372</v>
       </c>
       <c r="F3" s="32" t="s">
@@ -8771,7 +8786,7 @@
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
       <c r="AA3" s="41"/>
-      <c r="AB3" s="89" t="s">
+      <c r="AB3" s="81" t="s">
         <v>445</v>
       </c>
       <c r="AC3" s="43" t="s">
@@ -8788,13 +8803,13 @@
       </c>
     </row>
     <row r="4" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="32" t="s">
         <v>330</v>
       </c>
@@ -8841,7 +8856,7 @@
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
       <c r="AA4" s="41"/>
-      <c r="AB4" s="90"/>
+      <c r="AB4" s="82"/>
       <c r="AC4" s="43" t="s">
         <v>364</v>
       </c>
@@ -8856,13 +8871,13 @@
       </c>
     </row>
     <row r="5" spans="1:32" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="32" t="s">
         <v>330</v>
       </c>
@@ -8909,7 +8924,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
       <c r="AA5" s="41"/>
-      <c r="AB5" s="90"/>
+      <c r="AB5" s="82"/>
       <c r="AC5" s="43" t="s">
         <v>364</v>
       </c>
@@ -8924,13 +8939,13 @@
       </c>
     </row>
     <row r="6" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="32" t="s">
         <v>330</v>
       </c>
@@ -8977,7 +8992,7 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
       <c r="AA6" s="41"/>
-      <c r="AB6" s="91"/>
+      <c r="AB6" s="83"/>
       <c r="AC6" s="43" t="s">
         <v>364</v>
       </c>
@@ -8992,19 +9007,19 @@
       </c>
     </row>
     <row r="7" spans="1:32" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="87" t="s">
         <v>367</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="84" t="s">
         <v>372</v>
       </c>
       <c r="F7" s="32" t="s">
@@ -9055,7 +9070,7 @@
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="89" t="s">
+      <c r="AB7" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC7" s="43" t="s">
@@ -9072,13 +9087,13 @@
       </c>
     </row>
     <row r="8" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="32" t="s">
         <v>355</v>
       </c>
@@ -9127,7 +9142,7 @@
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
       <c r="AA8" s="41"/>
-      <c r="AB8" s="90"/>
+      <c r="AB8" s="82"/>
       <c r="AC8" s="43" t="s">
         <v>364</v>
       </c>
@@ -9142,13 +9157,13 @@
       </c>
     </row>
     <row r="9" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="32" t="s">
         <v>355</v>
       </c>
@@ -9197,7 +9212,7 @@
       <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="90"/>
+      <c r="AB9" s="82"/>
       <c r="AC9" s="43" t="s">
         <v>364</v>
       </c>
@@ -9212,13 +9227,13 @@
       </c>
     </row>
     <row r="10" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="32" t="s">
         <v>355</v>
       </c>
@@ -9267,7 +9282,7 @@
       <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
       <c r="AA10" s="41"/>
-      <c r="AB10" s="91"/>
+      <c r="AB10" s="83"/>
       <c r="AC10" s="43" t="s">
         <v>364</v>
       </c>
@@ -9282,19 +9297,19 @@
       </c>
     </row>
     <row r="11" spans="1:32" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="90" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="87" t="s">
         <v>367</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="84" t="s">
         <v>372</v>
       </c>
       <c r="F11" s="32" t="s">
@@ -9341,7 +9356,7 @@
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
       <c r="AA11" s="41"/>
-      <c r="AB11" s="89" t="s">
+      <c r="AB11" s="81" t="s">
         <v>445</v>
       </c>
       <c r="AC11" s="43" t="s">
@@ -9358,13 +9373,13 @@
       </c>
     </row>
     <row r="12" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="32" t="s">
         <v>351</v>
       </c>
@@ -9409,7 +9424,7 @@
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
       <c r="AA12" s="41"/>
-      <c r="AB12" s="91"/>
+      <c r="AB12" s="83"/>
       <c r="AC12" s="43" t="s">
         <v>364</v>
       </c>
@@ -9424,19 +9439,19 @@
       </c>
     </row>
     <row r="13" spans="1:32" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="90" t="s">
         <v>397</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="87" t="s">
         <v>367</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="84" t="s">
         <v>372</v>
       </c>
       <c r="F13" s="32" t="s">
@@ -9487,7 +9502,7 @@
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
       <c r="AA13" s="41"/>
-      <c r="AB13" s="89" t="s">
+      <c r="AB13" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC13" s="43" t="s">
@@ -9504,13 +9519,13 @@
       </c>
     </row>
     <row r="14" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="80"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="32" t="s">
         <v>462</v>
       </c>
@@ -9559,7 +9574,7 @@
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
       <c r="AA14" s="41"/>
-      <c r="AB14" s="90"/>
+      <c r="AB14" s="82"/>
       <c r="AC14" s="43" t="s">
         <v>364</v>
       </c>
@@ -9574,13 +9589,13 @@
       </c>
     </row>
     <row r="15" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="32" t="s">
         <v>462</v>
       </c>
@@ -9629,7 +9644,7 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
       <c r="AA15" s="41"/>
-      <c r="AB15" s="90"/>
+      <c r="AB15" s="82"/>
       <c r="AC15" s="43" t="s">
         <v>364</v>
       </c>
@@ -9644,13 +9659,13 @@
       </c>
     </row>
     <row r="16" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="32" t="s">
         <v>462</v>
       </c>
@@ -9699,7 +9714,7 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
       <c r="AA16" s="41"/>
-      <c r="AB16" s="91"/>
+      <c r="AB16" s="83"/>
       <c r="AC16" s="43" t="s">
         <v>364</v>
       </c>
@@ -9714,19 +9729,19 @@
       </c>
     </row>
     <row r="17" spans="1:32" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="90" t="s">
         <v>404</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="91" t="s">
         <v>367</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="84" t="s">
         <v>372</v>
       </c>
       <c r="F17" s="32" t="s">
@@ -9771,7 +9786,7 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
       <c r="AA17" s="41"/>
-      <c r="AB17" s="89" t="s">
+      <c r="AB17" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC17" s="43" t="s">
@@ -9788,13 +9803,13 @@
       </c>
     </row>
     <row r="18" spans="1:32" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="86"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="32" t="s">
         <v>462</v>
       </c>
@@ -9845,7 +9860,7 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
       <c r="AA18" s="41"/>
-      <c r="AB18" s="90"/>
+      <c r="AB18" s="82"/>
       <c r="AC18" s="43" t="s">
         <v>364</v>
       </c>
@@ -9860,13 +9875,13 @@
       </c>
     </row>
     <row r="19" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="32" t="s">
         <v>462</v>
       </c>
@@ -9917,7 +9932,7 @@
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
       <c r="AA19" s="41"/>
-      <c r="AB19" s="90"/>
+      <c r="AB19" s="82"/>
       <c r="AC19" s="43" t="s">
         <v>364</v>
       </c>
@@ -9932,13 +9947,13 @@
       </c>
     </row>
     <row r="20" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="86"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="32" t="s">
         <v>462</v>
       </c>
@@ -9989,7 +10004,7 @@
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
       <c r="AA20" s="41"/>
-      <c r="AB20" s="90"/>
+      <c r="AB20" s="82"/>
       <c r="AC20" s="43" t="s">
         <v>364</v>
       </c>
@@ -10004,13 +10019,13 @@
       </c>
     </row>
     <row r="21" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="87"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="32" t="s">
         <v>462</v>
       </c>
@@ -10061,7 +10076,7 @@
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
       <c r="AA21" s="41"/>
-      <c r="AB21" s="91"/>
+      <c r="AB21" s="83"/>
       <c r="AC21" s="43" t="s">
         <v>364</v>
       </c>
@@ -10076,19 +10091,19 @@
       </c>
     </row>
     <row r="22" spans="1:32" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="94" t="s">
         <v>492</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="87" t="s">
         <v>367</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="87">
         <v>3795623</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="84" t="s">
         <v>372</v>
       </c>
       <c r="F22" s="32" t="s">
@@ -10139,7 +10154,7 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
       <c r="AA22" s="41"/>
-      <c r="AB22" s="89" t="s">
+      <c r="AB22" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC22" s="43" t="s">
@@ -10156,13 +10171,13 @@
       </c>
     </row>
     <row r="23" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="32" t="s">
         <v>355</v>
       </c>
@@ -10211,7 +10226,7 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
       <c r="AA23" s="41"/>
-      <c r="AB23" s="90"/>
+      <c r="AB23" s="82"/>
       <c r="AC23" s="43" t="s">
         <v>364</v>
       </c>
@@ -10226,13 +10241,13 @@
       </c>
     </row>
     <row r="24" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="32" t="s">
         <v>462</v>
       </c>
@@ -10281,7 +10296,7 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
       <c r="AA24" s="41"/>
-      <c r="AB24" s="90"/>
+      <c r="AB24" s="82"/>
       <c r="AC24" s="43" t="s">
         <v>364</v>
       </c>
@@ -10296,13 +10311,13 @@
       </c>
     </row>
     <row r="25" spans="1:32" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="32" t="s">
         <v>351</v>
       </c>
@@ -10349,7 +10364,7 @@
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
       <c r="AA25" s="41"/>
-      <c r="AB25" s="90"/>
+      <c r="AB25" s="82"/>
       <c r="AC25" s="43" t="s">
         <v>364</v>
       </c>
@@ -10364,13 +10379,13 @@
       </c>
     </row>
     <row r="26" spans="1:32" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="32" t="s">
         <v>462</v>
       </c>
@@ -10421,7 +10436,7 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
       <c r="AA26" s="41"/>
-      <c r="AB26" s="91"/>
+      <c r="AB26" s="83"/>
       <c r="AC26" s="43" t="s">
         <v>364</v>
       </c>
@@ -10856,19 +10871,19 @@
       </c>
     </row>
     <row r="32" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="B32" s="82" t="s">
-        <v>362</v>
+      <c r="B32" s="85" t="s">
+        <v>367</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="78" t="s">
         <v>372</v>
       </c>
       <c r="F32" s="32" t="s">
@@ -10921,7 +10936,7 @@
       <c r="Y32" s="60"/>
       <c r="Z32" s="41"/>
       <c r="AA32" s="41"/>
-      <c r="AB32" s="89" t="s">
+      <c r="AB32" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC32" s="43" t="s">
@@ -10938,13 +10953,13 @@
       </c>
     </row>
     <row r="33" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="83"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
       <c r="F33" s="32" t="s">
         <v>351</v>
       </c>
@@ -10991,7 +11006,7 @@
       <c r="Y33" s="60"/>
       <c r="Z33" s="41"/>
       <c r="AA33" s="41"/>
-      <c r="AB33" s="91"/>
+      <c r="AB33" s="83"/>
       <c r="AC33" s="43" t="s">
         <v>364</v>
       </c>
@@ -11486,19 +11501,19 @@
       </c>
     </row>
     <row r="40" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="78" t="s">
         <v>367</v>
       </c>
       <c r="C40" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="78" t="s">
         <v>372</v>
       </c>
       <c r="F40" s="32" t="s">
@@ -11549,7 +11564,7 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
       <c r="AA40" s="41"/>
-      <c r="AB40" s="89" t="s">
+      <c r="AB40" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC40" s="43" t="s">
@@ -11566,13 +11581,13 @@
       </c>
     </row>
     <row r="41" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="32" t="s">
         <v>330</v>
       </c>
@@ -11621,7 +11636,7 @@
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
       <c r="AA41" s="41"/>
-      <c r="AB41" s="90"/>
+      <c r="AB41" s="82"/>
       <c r="AC41" s="43" t="s">
         <v>364</v>
       </c>
@@ -11636,13 +11651,13 @@
       </c>
     </row>
     <row r="42" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="32" t="s">
         <v>330</v>
       </c>
@@ -11691,7 +11706,7 @@
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
       <c r="AA42" s="41"/>
-      <c r="AB42" s="90"/>
+      <c r="AB42" s="82"/>
       <c r="AC42" s="43" t="s">
         <v>364</v>
       </c>
@@ -11706,13 +11721,13 @@
       </c>
     </row>
     <row r="43" spans="1:32" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
-      <c r="B43" s="93"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="32" t="s">
         <v>330</v>
       </c>
@@ -11761,7 +11776,7 @@
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
       <c r="AA43" s="41"/>
-      <c r="AB43" s="90"/>
+      <c r="AB43" s="82"/>
       <c r="AC43" s="43" t="s">
         <v>364</v>
       </c>
@@ -11776,13 +11791,13 @@
       </c>
     </row>
     <row r="44" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="96"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="32" t="s">
         <v>330</v>
       </c>
@@ -11831,7 +11846,7 @@
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
       <c r="AA44" s="41"/>
-      <c r="AB44" s="91"/>
+      <c r="AB44" s="83"/>
       <c r="AC44" s="43" t="s">
         <v>364</v>
       </c>
@@ -11926,19 +11941,19 @@
       </c>
     </row>
     <row r="46" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="100" t="s">
         <v>422</v>
       </c>
-      <c r="B46" s="82" t="s">
-        <v>367</v>
+      <c r="B46" s="85" t="s">
+        <v>362</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="84">
         <v>3795623</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="78" t="s">
         <v>372</v>
       </c>
       <c r="F46" s="32" t="s">
@@ -11991,7 +12006,7 @@
       <c r="Y46" s="41"/>
       <c r="Z46" s="41"/>
       <c r="AA46" s="41"/>
-      <c r="AB46" s="89" t="s">
+      <c r="AB46" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC46" s="43" t="s">
@@ -12008,13 +12023,13 @@
       </c>
     </row>
     <row r="47" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="B47" s="92"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="93"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="79"/>
       <c r="F47" s="32" t="s">
         <v>330</v>
       </c>
@@ -12065,7 +12080,7 @@
       <c r="Y47" s="41"/>
       <c r="Z47" s="41"/>
       <c r="AA47" s="41"/>
-      <c r="AB47" s="90"/>
+      <c r="AB47" s="82"/>
       <c r="AC47" s="43" t="s">
         <v>364</v>
       </c>
@@ -12080,13 +12095,13 @@
       </c>
     </row>
     <row r="48" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="B48" s="92"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="93"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="32" t="s">
         <v>330</v>
       </c>
@@ -12137,7 +12152,7 @@
       <c r="Y48" s="41"/>
       <c r="Z48" s="41"/>
       <c r="AA48" s="41"/>
-      <c r="AB48" s="90"/>
+      <c r="AB48" s="82"/>
       <c r="AC48" s="43" t="s">
         <v>364</v>
       </c>
@@ -12152,13 +12167,13 @@
       </c>
     </row>
     <row r="49" spans="1:16384" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="83"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="76"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="32" t="s">
         <v>330</v>
       </c>
@@ -12209,7 +12224,7 @@
       <c r="Y49" s="41"/>
       <c r="Z49" s="41"/>
       <c r="AA49" s="41"/>
-      <c r="AB49" s="91"/>
+      <c r="AB49" s="83"/>
       <c r="AC49" s="43" t="s">
         <v>364</v>
       </c>
@@ -12224,19 +12239,19 @@
       </c>
     </row>
     <row r="50" spans="1:16384" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="100" t="s">
         <v>421</v>
       </c>
-      <c r="B50" s="82" t="s">
-        <v>367</v>
+      <c r="B50" s="85" t="s">
+        <v>362</v>
       </c>
       <c r="C50" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="84">
         <v>3795623</v>
       </c>
-      <c r="E50" s="75" t="s">
+      <c r="E50" s="78" t="s">
         <v>372</v>
       </c>
       <c r="F50" s="32" t="s">
@@ -12289,7 +12304,7 @@
       <c r="Y50" s="41"/>
       <c r="Z50" s="41"/>
       <c r="AA50" s="41"/>
-      <c r="AB50" s="89" t="s">
+      <c r="AB50" s="81" t="s">
         <v>445</v>
       </c>
       <c r="AC50" s="43" t="s">
@@ -12306,13 +12321,13 @@
       </c>
     </row>
     <row r="51" spans="1:16384" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="92"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D51" s="81"/>
-      <c r="E51" s="93"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="32" t="s">
         <v>330</v>
       </c>
@@ -12363,7 +12378,7 @@
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
       <c r="AA51" s="41"/>
-      <c r="AB51" s="90"/>
+      <c r="AB51" s="82"/>
       <c r="AC51" s="43" t="s">
         <v>364</v>
       </c>
@@ -12378,13 +12393,13 @@
       </c>
     </row>
     <row r="52" spans="1:16384" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="92"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="93"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="79"/>
       <c r="F52" s="32" t="s">
         <v>330</v>
       </c>
@@ -12435,7 +12450,7 @@
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
       <c r="AA52" s="41"/>
-      <c r="AB52" s="90"/>
+      <c r="AB52" s="82"/>
       <c r="AC52" s="43" t="s">
         <v>364</v>
       </c>
@@ -12450,13 +12465,13 @@
       </c>
     </row>
     <row r="53" spans="1:16384" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="92"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="93"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="79"/>
       <c r="F53" s="32" t="s">
         <v>330</v>
       </c>
@@ -12507,7 +12522,7 @@
       <c r="Y53" s="41"/>
       <c r="Z53" s="41"/>
       <c r="AA53" s="41"/>
-      <c r="AB53" s="90"/>
+      <c r="AB53" s="82"/>
       <c r="AC53" s="43" t="s">
         <v>364</v>
       </c>
@@ -12522,13 +12537,13 @@
       </c>
     </row>
     <row r="54" spans="1:16384" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="83"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="86"/>
       <c r="C54" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="76"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="32" t="s">
         <v>330</v>
       </c>
@@ -12579,7 +12594,7 @@
       <c r="Y54" s="41"/>
       <c r="Z54" s="41"/>
       <c r="AA54" s="41"/>
-      <c r="AB54" s="91"/>
+      <c r="AB54" s="83"/>
       <c r="AC54" s="43" t="s">
         <v>364</v>
       </c>
@@ -12594,11 +12609,11 @@
       </c>
     </row>
     <row r="55" spans="1:16384" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="101" t="s">
         <v>420</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>490</v>
@@ -12672,11 +12687,11 @@
       </c>
     </row>
     <row r="56" spans="1:16384" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="101" t="s">
         <v>504</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C56" s="60" t="s">
         <v>491</v>
@@ -51588,11 +51603,11 @@
       </c>
     </row>
     <row r="57" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="101" t="s">
         <v>505</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C57" s="32" t="s">
         <v>465</v>
@@ -51668,11 +51683,11 @@
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="101" t="s">
         <v>506</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>466</v>
@@ -51748,11 +51763,11 @@
       </c>
     </row>
     <row r="59" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="101" t="s">
         <v>507</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>467</v>
@@ -51830,11 +51845,11 @@
       </c>
     </row>
     <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
+      <c r="A60" s="101" t="s">
         <v>508</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>489</v>
@@ -51908,19 +51923,19 @@
       </c>
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="87" t="s">
         <v>509</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="87" t="s">
         <v>367</v>
       </c>
       <c r="C61" s="68" t="s">
         <v>468</v>
       </c>
-      <c r="D61" s="81" t="s">
+      <c r="D61" s="84" t="s">
         <v>447</v>
       </c>
-      <c r="E61" s="80" t="s">
+      <c r="E61" s="87" t="s">
         <v>372</v>
       </c>
       <c r="F61" s="32" t="s">
@@ -51986,13 +52001,13 @@
       </c>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A62" s="80"/>
-      <c r="B62" s="80"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="68" t="s">
         <v>468</v>
       </c>
-      <c r="D62" s="81"/>
-      <c r="E62" s="80"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="87"/>
       <c r="F62" s="32" t="s">
         <v>330</v>
       </c>
@@ -52058,13 +52073,13 @@
       </c>
     </row>
     <row r="63" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="80"/>
-      <c r="B63" s="80"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="87"/>
       <c r="C63" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="80"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="87"/>
       <c r="F63" s="32" t="s">
         <v>355</v>
       </c>
@@ -52134,13 +52149,13 @@
       </c>
     </row>
     <row r="64" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="87"/>
       <c r="C64" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="D64" s="81"/>
-      <c r="E64" s="80"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="87"/>
       <c r="F64" s="32" t="s">
         <v>355</v>
       </c>
@@ -52298,19 +52313,19 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="81" t="s">
+      <c r="A66" s="84" t="s">
         <v>511</v>
       </c>
-      <c r="B66" s="82" t="s">
-        <v>362</v>
+      <c r="B66" s="85" t="s">
+        <v>367</v>
       </c>
       <c r="C66" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="E66" s="75" t="s">
+      <c r="E66" s="78" t="s">
         <v>372</v>
       </c>
       <c r="F66" s="32" t="s">
@@ -52369,7 +52384,7 @@
       <c r="AA66" s="60">
         <v>18</v>
       </c>
-      <c r="AB66" s="89" t="s">
+      <c r="AB66" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC66" s="43" t="s">
@@ -52386,13 +52401,13 @@
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="83"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="86"/>
       <c r="C67" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
       <c r="F67" s="32" t="s">
         <v>351</v>
       </c>
@@ -52439,7 +52454,7 @@
       <c r="Y67" s="60"/>
       <c r="Z67" s="60"/>
       <c r="AA67" s="60"/>
-      <c r="AB67" s="91"/>
+      <c r="AB67" s="83"/>
       <c r="AC67" s="43" t="s">
         <v>364</v>
       </c>
@@ -52454,19 +52469,19 @@
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A68" s="81" t="s">
+      <c r="A68" s="84" t="s">
         <v>512</v>
       </c>
-      <c r="B68" s="82" t="s">
-        <v>362</v>
+      <c r="B68" s="85" t="s">
+        <v>367</v>
       </c>
       <c r="C68" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="D68" s="75" t="s">
+      <c r="D68" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="E68" s="75" t="s">
+      <c r="E68" s="78" t="s">
         <v>372</v>
       </c>
       <c r="F68" s="32" t="s">
@@ -52523,7 +52538,7 @@
       <c r="AA68" s="60">
         <v>18</v>
       </c>
-      <c r="AB68" s="89" t="s">
+      <c r="AB68" s="81" t="s">
         <v>369</v>
       </c>
       <c r="AC68" s="43" t="s">
@@ -52540,13 +52555,13 @@
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="83"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="86"/>
       <c r="C69" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
       <c r="F69" s="32" t="s">
         <v>351</v>
       </c>
@@ -52593,7 +52608,7 @@
       <c r="Y69" s="60"/>
       <c r="Z69" s="60"/>
       <c r="AA69" s="60"/>
-      <c r="AB69" s="91"/>
+      <c r="AB69" s="83"/>
       <c r="AC69" s="43" t="s">
         <v>364</v>
       </c>
@@ -53351,21 +53366,40 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="AB40:AB44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="AB68:AB69"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="D61:D64"/>
@@ -53382,40 +53416,21 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="AB68:AB69"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="AB40:AB44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
@@ -54017,8 +54032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54041,40 +54056,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
     </row>
     <row r="2" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
@@ -54175,17 +54190,17 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>528</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="87" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="81">
+      <c r="C3" s="97"/>
+      <c r="D3" s="84">
         <v>3795623</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="32" t="s">
         <v>529</v>
       </c>
@@ -54204,38 +54219,38 @@
       <c r="S3" s="32"/>
       <c r="T3" s="32"/>
       <c r="U3" s="60"/>
-      <c r="V3" s="99">
+      <c r="V3" s="97">
         <v>123566534</v>
       </c>
-      <c r="W3" s="99">
+      <c r="W3" s="97">
         <v>4534534534</v>
       </c>
       <c r="X3" s="60"/>
       <c r="Y3" s="60"/>
       <c r="Z3" s="60"/>
       <c r="AA3" s="60"/>
-      <c r="AB3" s="99" t="s">
-        <v>445</v>
+      <c r="AB3" s="97" t="s">
+        <v>369</v>
       </c>
       <c r="AC3" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="AD3" s="97" t="s">
+      <c r="AD3" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="AE3" s="97" t="s">
+      <c r="AE3" s="98" t="s">
         <v>349</v>
       </c>
-      <c r="AF3" s="97" t="s">
+      <c r="AF3" s="98" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="80"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="32" t="s">
         <v>530</v>
       </c>
@@ -54254,30 +54269,30 @@
       <c r="S4" s="32"/>
       <c r="T4" s="32"/>
       <c r="U4" s="32"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
       <c r="X4" s="32"/>
       <c r="Y4" s="32"/>
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
-      <c r="AB4" s="99"/>
+      <c r="AB4" s="97"/>
       <c r="AC4" s="32"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="90" t="s">
         <v>531</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="81">
+      <c r="C5" s="97"/>
+      <c r="D5" s="84">
         <v>3795623</v>
       </c>
-      <c r="E5" s="99"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="32" t="s">
         <v>529</v>
       </c>
@@ -54296,38 +54311,38 @@
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
-      <c r="V5" s="99">
+      <c r="V5" s="97">
         <v>123566534</v>
       </c>
-      <c r="W5" s="99">
+      <c r="W5" s="97">
         <v>4534534534</v>
       </c>
       <c r="X5" s="32"/>
       <c r="Y5" s="32"/>
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
-      <c r="AB5" s="99" t="s">
-        <v>445</v>
-      </c>
-      <c r="AC5" s="98" t="s">
+      <c r="AB5" s="97" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC5" s="99" t="s">
         <v>364</v>
       </c>
-      <c r="AD5" s="97" t="s">
+      <c r="AD5" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="AE5" s="97" t="s">
+      <c r="AE5" s="98" t="s">
         <v>349</v>
       </c>
-      <c r="AF5" s="97" t="s">
+      <c r="AF5" s="98" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="99"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="32" t="s">
         <v>530</v>
       </c>
@@ -54346,24 +54361,24 @@
       <c r="S6" s="32"/>
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
       <c r="X6" s="32"/>
       <c r="Y6" s="32"/>
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="34" t="s">
         <v>534</v>
       </c>
@@ -54382,31 +54397,20 @@
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
       <c r="X7" s="32"/>
       <c r="Y7" s="32"/>
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="AF5:AF7"/>
     <mergeCell ref="AE5:AE7"/>
     <mergeCell ref="AD5:AD7"/>
@@ -54420,6 +54424,17 @@
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
@@ -54443,15 +54458,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="87" t="s">
         <v>418</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
-      <c r="D1" s="89">
+      <c r="D1" s="81">
         <v>3795623</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="91" t="s">
         <v>372</v>
       </c>
       <c r="F1" s="32" t="s">
@@ -54487,11 +54502,11 @@
       <c r="AF1" s="32"/>
     </row>
     <row r="2" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
+      <c r="A2" s="87"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="86"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="32" t="s">
         <v>429</v>
       </c>
@@ -54523,11 +54538,11 @@
       <c r="AF2" s="32"/>
     </row>
     <row r="3" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="32" t="s">
         <v>430</v>
       </c>
@@ -54559,7 +54574,7 @@
       <c r="AF3" s="32"/>
     </row>
     <row r="4" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="87" t="s">
         <v>419</v>
       </c>
       <c r="B4" s="32"/>
@@ -54597,7 +54612,7 @@
       <c r="AF4" s="32"/>
     </row>
     <row r="5" spans="1:32" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="41"/>
@@ -59611,19 +59626,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId464" name="Control 77">
+        <control shapeId="1025" r:id="rId464" name="Control 1">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59631,24 +59646,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId464" name="Control 77"/>
+        <control shapeId="1025" r:id="rId464" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId466" name="Control 76">
+        <control shapeId="1026" r:id="rId466" name="Control 2">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59656,24 +59671,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId466" name="Control 76"/>
+        <control shapeId="1026" r:id="rId466" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId467" name="Control 75">
+        <control shapeId="1027" r:id="rId467" name="Control 3">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59681,24 +59696,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId467" name="Control 75"/>
+        <control shapeId="1027" r:id="rId467" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId468" name="Control 74">
+        <control shapeId="1028" r:id="rId468" name="Control 4">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59706,24 +59721,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId468" name="Control 74"/>
+        <control shapeId="1028" r:id="rId468" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId469" name="Control 73">
+        <control shapeId="1029" r:id="rId469" name="Control 5">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59731,24 +59746,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId469" name="Control 73"/>
+        <control shapeId="1029" r:id="rId469" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId470" name="Control 72">
+        <control shapeId="1030" r:id="rId470" name="Control 6">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59756,24 +59771,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId470" name="Control 72"/>
+        <control shapeId="1030" r:id="rId470" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId471" name="Control 71">
+        <control shapeId="1031" r:id="rId471" name="Control 7">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59781,24 +59796,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId471" name="Control 71"/>
+        <control shapeId="1031" r:id="rId471" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId472" name="Control 70">
+        <control shapeId="1032" r:id="rId472" name="Control 8">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59806,24 +59821,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId472" name="Control 70"/>
+        <control shapeId="1032" r:id="rId472" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId473" name="Control 69">
+        <control shapeId="1033" r:id="rId473" name="Control 9">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59831,24 +59846,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId473" name="Control 69"/>
+        <control shapeId="1033" r:id="rId473" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId474" name="Control 68">
+        <control shapeId="1034" r:id="rId474" name="Control 10">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59856,24 +59871,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId474" name="Control 68"/>
+        <control shapeId="1034" r:id="rId474" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId475" name="Control 67">
+        <control shapeId="1035" r:id="rId475" name="Control 11">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59881,24 +59896,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId475" name="Control 67"/>
+        <control shapeId="1035" r:id="rId475" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId476" name="Control 66">
+        <control shapeId="1036" r:id="rId476" name="Control 12">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59906,24 +59921,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId476" name="Control 66"/>
+        <control shapeId="1036" r:id="rId476" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId477" name="Control 65">
+        <control shapeId="1037" r:id="rId477" name="Control 13">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59931,24 +59946,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId477" name="Control 65"/>
+        <control shapeId="1037" r:id="rId477" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId478" name="Control 64">
+        <control shapeId="1038" r:id="rId478" name="Control 14">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59956,24 +59971,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId478" name="Control 64"/>
+        <control shapeId="1038" r:id="rId478" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId479" name="Control 63">
+        <control shapeId="1039" r:id="rId479" name="Control 15">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -59981,24 +59996,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId479" name="Control 63"/>
+        <control shapeId="1039" r:id="rId479" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId480" name="Control 62">
+        <control shapeId="1040" r:id="rId480" name="Control 16">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60006,24 +60021,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId480" name="Control 62"/>
+        <control shapeId="1040" r:id="rId480" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId481" name="Control 61">
+        <control shapeId="1041" r:id="rId481" name="Control 17">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60031,24 +60046,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId481" name="Control 61"/>
+        <control shapeId="1041" r:id="rId481" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId482" name="Control 60">
+        <control shapeId="1042" r:id="rId482" name="Control 18">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60056,24 +60071,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId482" name="Control 60"/>
+        <control shapeId="1042" r:id="rId482" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId483" name="Control 59">
+        <control shapeId="1043" r:id="rId483" name="Control 19">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60081,24 +60096,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId483" name="Control 59"/>
+        <control shapeId="1043" r:id="rId483" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId484" name="Control 58">
+        <control shapeId="1044" r:id="rId484" name="Control 20">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60106,24 +60121,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId484" name="Control 58"/>
+        <control shapeId="1044" r:id="rId484" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId485" name="Control 57">
+        <control shapeId="1045" r:id="rId485" name="Control 21">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60131,24 +60146,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId485" name="Control 57"/>
+        <control shapeId="1045" r:id="rId485" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId486" name="Control 56">
+        <control shapeId="1046" r:id="rId486" name="Control 22">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60156,24 +60171,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId486" name="Control 56"/>
+        <control shapeId="1046" r:id="rId486" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId487" name="Control 55">
+        <control shapeId="1047" r:id="rId487" name="Control 23">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60181,24 +60196,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId487" name="Control 55"/>
+        <control shapeId="1047" r:id="rId487" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId488" name="Control 54">
+        <control shapeId="1048" r:id="rId488" name="Control 24">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60206,24 +60221,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId488" name="Control 54"/>
+        <control shapeId="1048" r:id="rId488" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId489" name="Control 53">
+        <control shapeId="1049" r:id="rId489" name="Control 25">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60231,24 +60246,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId489" name="Control 53"/>
+        <control shapeId="1049" r:id="rId489" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId490" name="Control 52">
+        <control shapeId="1050" r:id="rId490" name="Control 26">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60256,24 +60271,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId490" name="Control 52"/>
+        <control shapeId="1050" r:id="rId490" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId491" name="Control 51">
+        <control shapeId="1051" r:id="rId491" name="Control 27">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60281,24 +60296,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId491" name="Control 51"/>
+        <control shapeId="1051" r:id="rId491" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId492" name="Control 50">
+        <control shapeId="1052" r:id="rId492" name="Control 28">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60306,24 +60321,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId492" name="Control 50"/>
+        <control shapeId="1052" r:id="rId492" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId493" name="Control 49">
+        <control shapeId="1053" r:id="rId493" name="Control 29">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60331,24 +60346,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId493" name="Control 49"/>
+        <control shapeId="1053" r:id="rId493" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId494" name="Control 48">
+        <control shapeId="1054" r:id="rId494" name="Control 30">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60356,24 +60371,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId494" name="Control 48"/>
+        <control shapeId="1054" r:id="rId494" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId495" name="Control 47">
+        <control shapeId="1055" r:id="rId495" name="Control 31">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60381,24 +60396,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId495" name="Control 47"/>
+        <control shapeId="1055" r:id="rId495" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId496" name="Control 46">
+        <control shapeId="1056" r:id="rId496" name="Control 32">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60406,24 +60421,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId496" name="Control 46"/>
+        <control shapeId="1056" r:id="rId496" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId497" name="Control 45">
+        <control shapeId="1057" r:id="rId497" name="Control 33">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60431,24 +60446,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId497" name="Control 45"/>
+        <control shapeId="1057" r:id="rId497" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId498" name="Control 44">
+        <control shapeId="1058" r:id="rId498" name="Control 34">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60456,24 +60471,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId498" name="Control 44"/>
+        <control shapeId="1058" r:id="rId498" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId499" name="Control 43">
+        <control shapeId="1059" r:id="rId499" name="Control 35">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60481,24 +60496,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId499" name="Control 43"/>
+        <control shapeId="1059" r:id="rId499" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId500" name="Control 42">
+        <control shapeId="1060" r:id="rId500" name="Control 36">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60506,24 +60521,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId500" name="Control 42"/>
+        <control shapeId="1060" r:id="rId500" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId501" name="Control 41">
+        <control shapeId="1061" r:id="rId501" name="Control 37">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60531,24 +60546,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId501" name="Control 41"/>
+        <control shapeId="1061" r:id="rId501" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId502" name="Control 40">
+        <control shapeId="1062" r:id="rId502" name="Control 38">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60556,7 +60571,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId502" name="Control 40"/>
+        <control shapeId="1062" r:id="rId502" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -60586,19 +60601,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId504" name="Control 38">
+        <control shapeId="1064" r:id="rId504" name="Control 40">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60606,24 +60621,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId504" name="Control 38"/>
+        <control shapeId="1064" r:id="rId504" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId505" name="Control 37">
+        <control shapeId="1065" r:id="rId505" name="Control 41">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60631,24 +60646,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId505" name="Control 37"/>
+        <control shapeId="1065" r:id="rId505" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId506" name="Control 36">
+        <control shapeId="1066" r:id="rId506" name="Control 42">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60656,24 +60671,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId506" name="Control 36"/>
+        <control shapeId="1066" r:id="rId506" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId507" name="Control 35">
+        <control shapeId="1067" r:id="rId507" name="Control 43">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60681,24 +60696,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId507" name="Control 35"/>
+        <control shapeId="1067" r:id="rId507" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId508" name="Control 34">
+        <control shapeId="1068" r:id="rId508" name="Control 44">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60706,24 +60721,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId508" name="Control 34"/>
+        <control shapeId="1068" r:id="rId508" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId509" name="Control 33">
+        <control shapeId="1069" r:id="rId509" name="Control 45">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60731,24 +60746,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId509" name="Control 33"/>
+        <control shapeId="1069" r:id="rId509" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId510" name="Control 32">
+        <control shapeId="1070" r:id="rId510" name="Control 46">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60756,24 +60771,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId510" name="Control 32"/>
+        <control shapeId="1070" r:id="rId510" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId511" name="Control 31">
+        <control shapeId="1071" r:id="rId511" name="Control 47">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60781,24 +60796,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId511" name="Control 31"/>
+        <control shapeId="1071" r:id="rId511" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId512" name="Control 30">
+        <control shapeId="1072" r:id="rId512" name="Control 48">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60806,24 +60821,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId512" name="Control 30"/>
+        <control shapeId="1072" r:id="rId512" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId513" name="Control 29">
+        <control shapeId="1073" r:id="rId513" name="Control 49">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60831,24 +60846,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId513" name="Control 29"/>
+        <control shapeId="1073" r:id="rId513" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId514" name="Control 28">
+        <control shapeId="1074" r:id="rId514" name="Control 50">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60856,24 +60871,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId514" name="Control 28"/>
+        <control shapeId="1074" r:id="rId514" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId515" name="Control 27">
+        <control shapeId="1075" r:id="rId515" name="Control 51">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60881,24 +60896,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId515" name="Control 27"/>
+        <control shapeId="1075" r:id="rId515" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId516" name="Control 26">
+        <control shapeId="1076" r:id="rId516" name="Control 52">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60906,24 +60921,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId516" name="Control 26"/>
+        <control shapeId="1076" r:id="rId516" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId517" name="Control 25">
+        <control shapeId="1077" r:id="rId517" name="Control 53">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60931,24 +60946,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId517" name="Control 25"/>
+        <control shapeId="1077" r:id="rId517" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId518" name="Control 24">
+        <control shapeId="1078" r:id="rId518" name="Control 54">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60956,24 +60971,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId518" name="Control 24"/>
+        <control shapeId="1078" r:id="rId518" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId519" name="Control 23">
+        <control shapeId="1079" r:id="rId519" name="Control 55">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -60981,24 +60996,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId519" name="Control 23"/>
+        <control shapeId="1079" r:id="rId519" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId520" name="Control 22">
+        <control shapeId="1080" r:id="rId520" name="Control 56">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61006,24 +61021,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId520" name="Control 22"/>
+        <control shapeId="1080" r:id="rId520" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId521" name="Control 21">
+        <control shapeId="1081" r:id="rId521" name="Control 57">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61031,24 +61046,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId521" name="Control 21"/>
+        <control shapeId="1081" r:id="rId521" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId522" name="Control 20">
+        <control shapeId="1082" r:id="rId522" name="Control 58">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61056,24 +61071,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId522" name="Control 20"/>
+        <control shapeId="1082" r:id="rId522" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId523" name="Control 19">
+        <control shapeId="1083" r:id="rId523" name="Control 59">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61081,24 +61096,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId523" name="Control 19"/>
+        <control shapeId="1083" r:id="rId523" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId524" name="Control 18">
+        <control shapeId="1084" r:id="rId524" name="Control 60">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61106,24 +61121,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId524" name="Control 18"/>
+        <control shapeId="1084" r:id="rId524" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId525" name="Control 17">
+        <control shapeId="1085" r:id="rId525" name="Control 61">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61131,24 +61146,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId525" name="Control 17"/>
+        <control shapeId="1085" r:id="rId525" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId526" name="Control 16">
+        <control shapeId="1086" r:id="rId526" name="Control 62">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61156,24 +61171,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId526" name="Control 16"/>
+        <control shapeId="1086" r:id="rId526" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId527" name="Control 15">
+        <control shapeId="1087" r:id="rId527" name="Control 63">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61181,24 +61196,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId527" name="Control 15"/>
+        <control shapeId="1087" r:id="rId527" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId528" name="Control 14">
+        <control shapeId="1088" r:id="rId528" name="Control 64">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61206,24 +61221,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId528" name="Control 14"/>
+        <control shapeId="1088" r:id="rId528" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId529" name="Control 13">
+        <control shapeId="1089" r:id="rId529" name="Control 65">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61231,24 +61246,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId529" name="Control 13"/>
+        <control shapeId="1089" r:id="rId529" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId530" name="Control 12">
+        <control shapeId="1090" r:id="rId530" name="Control 66">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61256,24 +61271,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId530" name="Control 12"/>
+        <control shapeId="1090" r:id="rId530" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId531" name="Control 11">
+        <control shapeId="1091" r:id="rId531" name="Control 67">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61281,24 +61296,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId531" name="Control 11"/>
+        <control shapeId="1091" r:id="rId531" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId532" name="Control 10">
+        <control shapeId="1092" r:id="rId532" name="Control 68">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61306,24 +61321,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId532" name="Control 10"/>
+        <control shapeId="1092" r:id="rId532" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId533" name="Control 9">
+        <control shapeId="1093" r:id="rId533" name="Control 69">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61331,24 +61346,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId533" name="Control 9"/>
+        <control shapeId="1093" r:id="rId533" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId534" name="Control 8">
+        <control shapeId="1094" r:id="rId534" name="Control 70">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61356,24 +61371,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId534" name="Control 8"/>
+        <control shapeId="1094" r:id="rId534" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId535" name="Control 7">
+        <control shapeId="1095" r:id="rId535" name="Control 71">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61381,24 +61396,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId535" name="Control 7"/>
+        <control shapeId="1095" r:id="rId535" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId536" name="Control 6">
+        <control shapeId="1096" r:id="rId536" name="Control 72">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61406,24 +61421,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId536" name="Control 6"/>
+        <control shapeId="1096" r:id="rId536" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId537" name="Control 5">
+        <control shapeId="1097" r:id="rId537" name="Control 73">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61431,24 +61446,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId537" name="Control 5"/>
+        <control shapeId="1097" r:id="rId537" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId538" name="Control 4">
+        <control shapeId="1098" r:id="rId538" name="Control 74">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61456,24 +61471,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId538" name="Control 4"/>
+        <control shapeId="1098" r:id="rId538" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId539" name="Control 3">
+        <control shapeId="1099" r:id="rId539" name="Control 75">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61481,24 +61496,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId539" name="Control 3"/>
+        <control shapeId="1099" r:id="rId539" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId540" name="Control 2">
+        <control shapeId="1100" r:id="rId540" name="Control 76">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61506,24 +61521,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId540" name="Control 2"/>
+        <control shapeId="1100" r:id="rId540" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId541" name="Control 1">
+        <control shapeId="1101" r:id="rId541" name="Control 77">
           <controlPr defaultSize="0" r:id="rId465">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -61531,7 +61546,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId541" name="Control 1"/>
+        <control shapeId="1101" r:id="rId541" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -63865,19 +63880,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId183" name="Control 35">
+        <control shapeId="2049" r:id="rId183" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -63885,24 +63900,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId183" name="Control 35"/>
+        <control shapeId="2049" r:id="rId183" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId185" name="Control 34">
+        <control shapeId="2050" r:id="rId185" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -63910,24 +63925,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId185" name="Control 34"/>
+        <control shapeId="2050" r:id="rId185" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId186" name="Control 33">
+        <control shapeId="2051" r:id="rId186" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -63935,24 +63950,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId186" name="Control 33"/>
+        <control shapeId="2051" r:id="rId186" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId187" name="Control 32">
+        <control shapeId="2052" r:id="rId187" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -63960,24 +63975,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId187" name="Control 32"/>
+        <control shapeId="2052" r:id="rId187" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId188" name="Control 31">
+        <control shapeId="2053" r:id="rId188" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -63985,24 +64000,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId188" name="Control 31"/>
+        <control shapeId="2053" r:id="rId188" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId189" name="Control 30">
+        <control shapeId="2054" r:id="rId189" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64010,24 +64025,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId189" name="Control 30"/>
+        <control shapeId="2054" r:id="rId189" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId190" name="Control 29">
+        <control shapeId="2055" r:id="rId190" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64035,24 +64050,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId190" name="Control 29"/>
+        <control shapeId="2055" r:id="rId190" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId191" name="Control 28">
+        <control shapeId="2056" r:id="rId191" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64060,24 +64075,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId191" name="Control 28"/>
+        <control shapeId="2056" r:id="rId191" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId192" name="Control 27">
+        <control shapeId="2057" r:id="rId192" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64085,24 +64100,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId192" name="Control 27"/>
+        <control shapeId="2057" r:id="rId192" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId193" name="Control 26">
+        <control shapeId="2058" r:id="rId193" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64110,24 +64125,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId193" name="Control 26"/>
+        <control shapeId="2058" r:id="rId193" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId194" name="Control 25">
+        <control shapeId="2059" r:id="rId194" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64135,24 +64150,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId194" name="Control 25"/>
+        <control shapeId="2059" r:id="rId194" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId195" name="Control 24">
+        <control shapeId="2060" r:id="rId195" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64160,24 +64175,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId195" name="Control 24"/>
+        <control shapeId="2060" r:id="rId195" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId196" name="Control 23">
+        <control shapeId="2061" r:id="rId196" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64185,24 +64200,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId196" name="Control 23"/>
+        <control shapeId="2061" r:id="rId196" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId197" name="Control 22">
+        <control shapeId="2062" r:id="rId197" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64210,24 +64225,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId197" name="Control 22"/>
+        <control shapeId="2062" r:id="rId197" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId198" name="Control 21">
+        <control shapeId="2063" r:id="rId198" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64235,24 +64250,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId198" name="Control 21"/>
+        <control shapeId="2063" r:id="rId198" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId199" name="Control 20">
+        <control shapeId="2064" r:id="rId199" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64260,24 +64275,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId199" name="Control 20"/>
+        <control shapeId="2064" r:id="rId199" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId200" name="Control 19">
+        <control shapeId="2065" r:id="rId200" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64285,7 +64300,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId200" name="Control 19"/>
+        <control shapeId="2065" r:id="rId200" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -64315,19 +64330,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId202" name="Control 17">
+        <control shapeId="2067" r:id="rId202" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64335,24 +64350,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId202" name="Control 17"/>
+        <control shapeId="2067" r:id="rId202" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId203" name="Control 16">
+        <control shapeId="2068" r:id="rId203" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64360,24 +64375,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId203" name="Control 16"/>
+        <control shapeId="2068" r:id="rId203" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId204" name="Control 15">
+        <control shapeId="2069" r:id="rId204" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64385,24 +64400,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId204" name="Control 15"/>
+        <control shapeId="2069" r:id="rId204" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId205" name="Control 14">
+        <control shapeId="2070" r:id="rId205" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64410,24 +64425,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId205" name="Control 14"/>
+        <control shapeId="2070" r:id="rId205" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId206" name="Control 13">
+        <control shapeId="2071" r:id="rId206" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64435,24 +64450,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId206" name="Control 13"/>
+        <control shapeId="2071" r:id="rId206" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId207" name="Control 12">
+        <control shapeId="2072" r:id="rId207" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64460,24 +64475,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId207" name="Control 12"/>
+        <control shapeId="2072" r:id="rId207" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId208" name="Control 11">
+        <control shapeId="2073" r:id="rId208" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64485,24 +64500,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId208" name="Control 11"/>
+        <control shapeId="2073" r:id="rId208" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId209" name="Control 10">
+        <control shapeId="2074" r:id="rId209" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64510,24 +64525,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId209" name="Control 10"/>
+        <control shapeId="2074" r:id="rId209" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId210" name="Control 9">
+        <control shapeId="2075" r:id="rId210" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64535,24 +64550,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId210" name="Control 9"/>
+        <control shapeId="2075" r:id="rId210" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId211" name="Control 8">
+        <control shapeId="2076" r:id="rId211" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64560,24 +64575,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId211" name="Control 8"/>
+        <control shapeId="2076" r:id="rId211" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId212" name="Control 7">
+        <control shapeId="2077" r:id="rId212" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64585,24 +64600,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId212" name="Control 7"/>
+        <control shapeId="2077" r:id="rId212" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId213" name="Control 6">
+        <control shapeId="2078" r:id="rId213" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64610,24 +64625,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId213" name="Control 6"/>
+        <control shapeId="2078" r:id="rId213" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId214" name="Control 5">
+        <control shapeId="2079" r:id="rId214" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64635,24 +64650,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId214" name="Control 5"/>
+        <control shapeId="2079" r:id="rId214" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId215" name="Control 4">
+        <control shapeId="2080" r:id="rId215" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64660,24 +64675,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId215" name="Control 4"/>
+        <control shapeId="2080" r:id="rId215" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId216" name="Control 3">
+        <control shapeId="2081" r:id="rId216" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64685,24 +64700,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId216" name="Control 3"/>
+        <control shapeId="2081" r:id="rId216" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId217" name="Control 2">
+        <control shapeId="2082" r:id="rId217" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64710,24 +64725,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId217" name="Control 2"/>
+        <control shapeId="2082" r:id="rId217" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId218" name="Control 1">
+        <control shapeId="2083" r:id="rId218" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -64735,7 +64750,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId218" name="Control 1"/>
+        <control shapeId="2083" r:id="rId218" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
